--- a/공여사들_엑셀력을_바꾸는_시간,_15분_워밍업.xlsx
+++ b/공여사들_엑셀력을_바꾸는_시간,_15분_워밍업.xlsx
@@ -1,38 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000 유튜브\06 엑바시\강의\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB-21042615\Excel_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D2734A-AFB9-4F8A-80DF-50CE48FBCAA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8ADA48-5F03-4EFD-A486-C911212AA274}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8295" yWindow="-11640" windowWidth="20730" windowHeight="11760" xr2:uid="{6C1E0167-6C3E-4F6B-9010-10342B2380A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" xr2:uid="{6C1E0167-6C3E-4F6B-9010-10342B2380A4}"/>
   </bookViews>
   <sheets>
     <sheet name="엑셀력 제로 모여라" sheetId="4" r:id="rId1"/>
     <sheet name="엑셀력 제로 모여라_결과" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
   <si>
     <t>셀 병합</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,13 +201,21 @@
   </si>
   <si>
     <t>일</t>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,8 +257,24 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF5050"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,12 +290,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6699"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,7 +401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -474,7 +486,76 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -810,305 +891,383 @@
   </sheetPr>
   <dimension ref="B1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="19.2"/>
   <cols>
-    <col min="1" max="1" width="1.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="6" width="10.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="1.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" style="1" customWidth="1"/>
-    <col min="9" max="12" width="13.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="1.44140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="1.3984375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="15" style="28" customWidth="1"/>
+    <col min="3" max="6" width="10.59765625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="1.3984375" style="28" customWidth="1"/>
+    <col min="8" max="8" width="13.796875" style="28" customWidth="1"/>
+    <col min="9" max="12" width="13.09765625" style="28" customWidth="1"/>
+    <col min="13" max="13" width="1.3984375" style="28" customWidth="1"/>
+    <col min="14" max="16384" width="8.8984375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+    <row r="1" spans="2:12" ht="19.8" thickBot="1"/>
+    <row r="2" spans="2:12" ht="19.8" thickBot="1">
+      <c r="B2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:12">
+      <c r="B3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="H3" s="2" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="H3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="33">
         <f>K3</f>
         <v>12345</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="33">
         <v>12345</v>
       </c>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="L3" s="35"/>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="H4" s="7" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="H4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10" t="s">
+      <c r="I4" s="39" t="str">
+        <f>K4</f>
+        <v>일</v>
+      </c>
+      <c r="J4" s="39" t="str">
+        <f>L4</f>
+        <v>삼</v>
+      </c>
+      <c r="K4" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="40" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="2:12" ht="19.8" thickBot="1">
+      <c r="B5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="H5" s="15" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
+      <c r="H5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="s">
+      <c r="I5" s="39" t="str">
+        <f>K5</f>
+        <v>이</v>
+      </c>
+      <c r="J5" s="39" t="str">
+        <f>L5</f>
+        <v>사</v>
+      </c>
+      <c r="K5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="7" t="s">
+    <row r="6" spans="2:12" ht="19.8" thickBot="1">
+      <c r="H6" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10">
+      <c r="I6" s="39">
+        <f>$K$6</f>
         <v>5</v>
       </c>
-      <c r="L6" s="11">
+      <c r="J6" s="39">
+        <f>$K$6</f>
+        <v>5</v>
+      </c>
+      <c r="K6" s="39">
+        <v>5</v>
+      </c>
+      <c r="L6" s="40">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="s">
+    <row r="7" spans="2:12" ht="19.8" thickBot="1">
+      <c r="B7" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10">
+      <c r="I7" s="39">
+        <f>$K6</f>
+        <v>5</v>
+      </c>
+      <c r="J7" s="39">
+        <f>$K6</f>
+        <v>5</v>
+      </c>
+      <c r="K7" s="39">
         <v>6</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="40">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="2:12">
+      <c r="B8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="H8" s="7" t="s">
+      <c r="C8" s="33">
+        <v>1</v>
+      </c>
+      <c r="D8" s="33">
+        <v>2</v>
+      </c>
+      <c r="E8" s="33">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35">
+        <v>4</v>
+      </c>
+      <c r="H8" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="2:12">
+      <c r="B9" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="H9" s="15" t="s">
+      <c r="C9" s="39">
+        <v>1</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="H9" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="H10" s="7" t="s">
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="40"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="36"/>
+      <c r="C10" s="39">
+        <v>2</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="H10" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="H11" s="20" t="s">
+    <row r="11" spans="2:12" ht="19.8" thickBot="1">
+      <c r="B11" s="36"/>
+      <c r="C11" s="39">
+        <v>3</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="H11" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="47"/>
+    </row>
+    <row r="12" spans="2:12" ht="19.8" thickBot="1">
+      <c r="B12" s="36"/>
+      <c r="C12" s="39">
         <v>4</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="H13" s="21" t="s">
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+    </row>
+    <row r="13" spans="2:12" ht="19.8" thickBot="1">
+      <c r="B13" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="H14" s="2" t="s">
+      <c r="D13" s="39">
+        <v>2</v>
+      </c>
+      <c r="E13" s="39">
+        <v>3</v>
+      </c>
+      <c r="F13" s="40">
+        <v>4</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="36"/>
+      <c r="C14" s="39">
+        <v>5</v>
+      </c>
+      <c r="D14" s="39">
+        <v>6</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="H14" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="H15" s="7" t="s">
+      <c r="J14" s="48"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="32"/>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="36"/>
+      <c r="C15" s="39">
+        <v>7</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
+      <c r="H15" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="J15" s="49"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="38"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="H16" s="7" t="s">
+      <c r="C16" s="39">
+        <v>4</v>
+      </c>
+      <c r="D16" s="39">
+        <v>3</v>
+      </c>
+      <c r="E16" s="39">
+        <v>2</v>
+      </c>
+      <c r="F16" s="40">
+        <v>1</v>
+      </c>
+      <c r="H16" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="23" t="s">
+      <c r="I16" s="37"/>
+      <c r="J16" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
+      <c r="K16" s="37"/>
+      <c r="L16" s="38"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="H17" s="7" t="s">
+      <c r="C17" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="23" t="s">
+      <c r="I17" s="37"/>
+      <c r="J17" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="H18" s="12" t="s">
+      <c r="K17" s="37"/>
+      <c r="L17" s="38"/>
+    </row>
+    <row r="18" spans="2:12" ht="19.8" thickBot="1">
+      <c r="B18" s="41"/>
+      <c r="C18" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="H18" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="25" t="s">
+      <c r="I18" s="42"/>
+      <c r="J18" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="14"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1126,20 +1285,20 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="1.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.3984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="6" width="10.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="1.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" style="1" customWidth="1"/>
-    <col min="9" max="12" width="13.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="1.44140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="6" width="10.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="1.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.796875" style="1" customWidth="1"/>
+    <col min="9" max="12" width="13.09765625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="1.3984375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="16.2" thickBot="1"/>
+    <row r="2" spans="2:12" ht="16.2" thickBot="1">
       <c r="B2" s="21" t="s">
         <v>12</v>
       </c>
@@ -1147,7 +1306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12">
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1172,7 +1331,7 @@
       </c>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12">
       <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
@@ -1199,7 +1358,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="16.2" thickBot="1">
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
@@ -1227,7 +1386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="16.2" thickBot="1">
       <c r="H6" s="7" t="s">
         <v>15</v>
       </c>
@@ -1246,7 +1405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="16.2" thickBot="1">
       <c r="B7" s="21" t="s">
         <v>33</v>
       </c>
@@ -1268,7 +1427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1300,7 +1459,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12">
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
@@ -1318,7 +1477,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12">
       <c r="B10" s="7"/>
       <c r="C10" s="10">
         <v>2</v>
@@ -1342,7 +1501,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="16.2" thickBot="1">
       <c r="B11" s="7"/>
       <c r="C11" s="10">
         <v>3</v>
@@ -1358,7 +1517,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="16.2" thickBot="1">
       <c r="B12" s="7"/>
       <c r="C12" s="10">
         <v>4</v>
@@ -1367,7 +1526,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="16.2" thickBot="1">
       <c r="B13" s="7" t="s">
         <v>4</v>
       </c>
@@ -1387,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12">
       <c r="B14" s="7"/>
       <c r="C14" s="10">
         <v>5</v>
@@ -1407,7 +1566,7 @@
       <c r="K14" s="18"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12">
       <c r="B15" s="7"/>
       <c r="C15" s="10">
         <v>7</v>
@@ -1425,7 +1584,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12">
       <c r="B16" s="7" t="s">
         <v>3</v>
       </c>
@@ -1451,7 +1610,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12">
       <c r="B17" s="15" t="s">
         <v>2</v>
       </c>
@@ -1471,7 +1630,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" ht="16.2" thickBot="1">
       <c r="B18" s="12"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
